--- a/excels/config/game/element_bond.xlsx
+++ b/excels/config/game/element_bond.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="22185" windowHeight="10155" tabRatio="779"/>
+    <workbookView windowWidth="27945" windowHeight="12345" tabRatio="779"/>
   </bookViews>
   <sheets>
     <sheet name="element_bond" sheetId="7" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="97">
   <si>
     <t>序号</t>
   </si>
@@ -53,6 +53,9 @@
     <t>index</t>
   </si>
   <si>
+    <t>#Loccustom_element_bond_{}_Description</t>
+  </si>
+  <si>
     <t>CElementType</t>
   </si>
   <si>
@@ -83,55 +86,79 @@
     <t>[}]</t>
   </si>
   <si>
+    <t>fire_3</t>
+  </si>
+  <si>
     <t>火元素3</t>
   </si>
   <si>
     <t>火元素技能伤害+10%</t>
   </si>
   <si>
+    <t>fire_4</t>
+  </si>
+  <si>
     <t>火元素4</t>
   </si>
   <si>
     <t>灼烧伤害+25%攻击力</t>
   </si>
   <si>
+    <t>fire_5</t>
+  </si>
+  <si>
     <t>火元素5</t>
   </si>
   <si>
     <t>对灼烧的单位造成伤害+30%</t>
   </si>
   <si>
+    <t>fire_6</t>
+  </si>
+  <si>
     <t>火元素6</t>
   </si>
   <si>
     <t>灼烧时间延长一倍</t>
   </si>
   <si>
+    <t>fire_7</t>
+  </si>
+  <si>
     <t>火元素7</t>
   </si>
   <si>
     <t>火元素暴击概率+25%，火元素暴击伤害+50%</t>
   </si>
   <si>
+    <t>ice_3</t>
+  </si>
+  <si>
     <t>冰元素3</t>
   </si>
   <si>
     <t>冰元素技能伤害+10%</t>
   </si>
   <si>
+    <t>ice_4</t>
+  </si>
+  <si>
     <t>冰元素4</t>
   </si>
   <si>
     <t>减速效果+20%</t>
   </si>
   <si>
+    <t>ice_5</t>
+  </si>
+  <si>
     <t>冰元素5</t>
   </si>
   <si>
     <t>对冰冻的单位造成伤害+100%</t>
   </si>
   <si>
-    <t>s</t>
+    <t>ice_6</t>
   </si>
   <si>
     <t>冰元素6</t>
@@ -140,100 +167,151 @@
     <t>被减速的单位同时降低20%冰元素抗性</t>
   </si>
   <si>
+    <t>ice_7</t>
+  </si>
+  <si>
     <t>冰元素7</t>
   </si>
   <si>
     <t>冰元素暴击概率+25%，对冰冻的单位必定暴击</t>
   </si>
   <si>
+    <t>thunder_3</t>
+  </si>
+  <si>
     <t>雷元素3</t>
   </si>
   <si>
     <t>雷元素技能极速+10</t>
   </si>
   <si>
+    <t>thunder_4</t>
+  </si>
+  <si>
     <t>雷元素4</t>
   </si>
   <si>
     <t>麻痹时间延长1秒</t>
   </si>
   <si>
+    <t>thunder_5</t>
+  </si>
+  <si>
     <t>雷元素5</t>
   </si>
   <si>
     <t>对麻痹的敌人额外+25%伤害</t>
   </si>
   <si>
+    <t>thunder_6</t>
+  </si>
+  <si>
     <t>雷元素6</t>
   </si>
   <si>
     <t>被麻痹的敌人额外降低10%雷元素抗性</t>
   </si>
   <si>
+    <t>thunder_7</t>
+  </si>
+  <si>
     <t>雷元素7</t>
   </si>
   <si>
     <t>雷元素暴击概率+25%，雷元素抗性穿透+25%</t>
   </si>
   <si>
+    <t>wind_3</t>
+  </si>
+  <si>
     <t>风元素3</t>
   </si>
   <si>
     <t>风元素伤害+10%</t>
   </si>
   <si>
+    <t>wind_4</t>
+  </si>
+  <si>
     <t>风元素4</t>
   </si>
   <si>
     <t>击退效果+50%</t>
   </si>
   <si>
+    <t>wind_5</t>
+  </si>
+  <si>
     <t>风元素5</t>
   </si>
   <si>
     <t>风元素造成伤害之后3秒内，增伤+15%</t>
   </si>
   <si>
+    <t>wind_6</t>
+  </si>
+  <si>
     <t>风元素6</t>
   </si>
   <si>
     <t>风元素抗性穿透+30%</t>
   </si>
   <si>
+    <t>wind_7</t>
+  </si>
+  <si>
     <t>风元素7</t>
   </si>
   <si>
     <t>风元素暴击概率+25%，增伤持续时间改为5秒，增伤+35%</t>
   </si>
   <si>
+    <t>light_4</t>
+  </si>
+  <si>
     <t>光元素4</t>
   </si>
   <si>
     <t>技能极速+50</t>
   </si>
   <si>
+    <t>light_5</t>
+  </si>
+  <si>
     <t>光元素5</t>
   </si>
   <si>
     <t>光元素造成伤害无视抗性增加为30%</t>
   </si>
   <si>
+    <t>light_6</t>
+  </si>
+  <si>
     <t>光元素6</t>
   </si>
   <si>
     <t>生命恢复收益（回血、吸血等）的效果增加50%</t>
   </si>
   <si>
+    <t>dark_4</t>
+  </si>
+  <si>
     <t>暗元素4</t>
   </si>
   <si>
     <t>造成伤害+25%</t>
   </si>
   <si>
+    <t>dark_5</t>
+  </si>
+  <si>
     <t>暗元素5</t>
   </si>
   <si>
     <t>降低自身最大生命值25%，无视抗性提升至45%</t>
+  </si>
+  <si>
+    <t>dark_6</t>
   </si>
   <si>
     <t>暗元素6</t>
@@ -650,7 +728,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="22">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -733,19 +811,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF5A5A5A"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color rgb="FF595959"/>
-      </left>
-      <right style="medium">
-        <color rgb="FFFFFFFF"/>
-      </right>
-      <top/>
-      <bottom style="thick">
-        <color rgb="FF595959"/>
       </bottom>
       <diagonal/>
     </border>
@@ -947,7 +1012,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -959,34 +1024,34 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1073,7 +1138,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1118,12 +1183,12 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1136,46 +1201,43 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="10" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="10" xfId="50" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="11" xfId="50" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="9" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="10" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1313,7 +1375,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="黑色中色系标题行镶边行表格样式" count="3" xr9:uid="{A1AD1F64-F600-4E5B-BC04-CCF11D7E03E7}">
+    <tableStyle name="黑色中色系标题行镶边行表格样式" count="3" xr9:uid="{4B3A049A-9D90-499B-8D92-89B85C19ED5E}">
       <tableStyleElement type="wholeTable" dxfId="2"/>
       <tableStyleElement type="headerRow" dxfId="1"/>
       <tableStyleElement type="secondRowStripe" dxfId="0"/>
@@ -1596,10 +1658,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M29"/>
+  <dimension ref="A1:M28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1643,55 +1705,57 @@
       <c r="I1" s="5"/>
       <c r="J1" s="5"/>
       <c r="K1" s="5"/>
-      <c r="L1" s="26"/>
-      <c r="M1" s="27"/>
+      <c r="L1" s="25"/>
+      <c r="M1" s="26"/>
     </row>
     <row r="2" ht="22.5" customHeight="1" spans="1:13">
       <c r="A2" s="6" t="s">
         <v>7</v>
       </c>
       <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
+      <c r="C2" s="7" t="s">
+        <v>8</v>
+      </c>
       <c r="D2" s="8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H2" s="10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I2" s="10" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J2" s="10" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="K2" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="L2" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="M2" s="29" t="s">
+      <c r="L2" s="27" t="s">
         <v>17</v>
       </c>
+      <c r="M2" s="28" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="3" ht="20" customHeight="1" spans="1:13">
-      <c r="A3" s="11">
-        <v>1</v>
+      <c r="A3" s="11" t="s">
+        <v>19</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D3" s="14">
         <v>1</v>
@@ -1707,18 +1771,18 @@
       <c r="I3" s="14"/>
       <c r="J3" s="14"/>
       <c r="K3" s="14"/>
-      <c r="L3" s="30"/>
-      <c r="M3" s="31"/>
+      <c r="L3" s="29"/>
+      <c r="M3" s="30"/>
     </row>
     <row r="4" ht="20" customHeight="1" spans="1:13">
-      <c r="A4" s="16">
-        <v>2</v>
-      </c>
-      <c r="B4" s="17" t="s">
-        <v>20</v>
+      <c r="A4" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" s="16" t="s">
+        <v>23</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D4" s="8">
         <v>1</v>
@@ -1734,18 +1798,18 @@
       <c r="I4" s="8"/>
       <c r="J4" s="8"/>
       <c r="K4" s="8"/>
-      <c r="L4" s="32"/>
-      <c r="M4" s="31"/>
+      <c r="L4" s="31"/>
+      <c r="M4" s="30"/>
     </row>
     <row r="5" ht="20" customHeight="1" spans="1:13">
-      <c r="A5" s="11">
-        <v>3</v>
+      <c r="A5" s="11" t="s">
+        <v>25</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="D5" s="14">
         <v>1</v>
@@ -1761,18 +1825,18 @@
       <c r="I5" s="14"/>
       <c r="J5" s="14"/>
       <c r="K5" s="14"/>
-      <c r="L5" s="30"/>
-      <c r="M5" s="31"/>
+      <c r="L5" s="29"/>
+      <c r="M5" s="30"/>
     </row>
     <row r="6" ht="20" customHeight="1" spans="1:13">
-      <c r="A6" s="16">
-        <v>4</v>
-      </c>
-      <c r="B6" s="17" t="s">
-        <v>24</v>
+      <c r="A6" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6" s="16" t="s">
+        <v>29</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D6" s="8">
         <v>1</v>
@@ -1788,18 +1852,18 @@
       <c r="I6" s="8"/>
       <c r="J6" s="8"/>
       <c r="K6" s="8"/>
-      <c r="L6" s="32"/>
-      <c r="M6" s="31"/>
+      <c r="L6" s="31"/>
+      <c r="M6" s="30"/>
     </row>
     <row r="7" ht="20" customHeight="1" spans="1:13">
-      <c r="A7" s="11">
-        <v>5</v>
+      <c r="A7" s="11" t="s">
+        <v>31</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D7" s="14">
         <v>1</v>
@@ -1815,18 +1879,18 @@
       <c r="I7" s="14"/>
       <c r="J7" s="14"/>
       <c r="K7" s="14"/>
-      <c r="L7" s="30"/>
-      <c r="M7" s="31"/>
+      <c r="L7" s="29"/>
+      <c r="M7" s="30"/>
     </row>
     <row r="8" ht="20" customHeight="1" spans="1:13">
-      <c r="A8" s="16">
-        <v>6</v>
-      </c>
-      <c r="B8" s="17" t="s">
-        <v>28</v>
+      <c r="A8" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="B8" s="16" t="s">
+        <v>35</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="D8" s="8">
         <v>2</v>
@@ -1842,18 +1906,18 @@
       <c r="I8" s="8"/>
       <c r="J8" s="8"/>
       <c r="K8" s="8"/>
-      <c r="L8" s="32"/>
-      <c r="M8" s="31"/>
+      <c r="L8" s="31"/>
+      <c r="M8" s="30"/>
     </row>
     <row r="9" ht="20" customHeight="1" spans="1:13">
-      <c r="A9" s="11">
-        <v>7</v>
+      <c r="A9" s="17" t="s">
+        <v>37</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="D9" s="14">
         <v>2</v>
@@ -1869,18 +1933,18 @@
       <c r="I9" s="14"/>
       <c r="J9" s="14"/>
       <c r="K9" s="14"/>
-      <c r="L9" s="30"/>
-      <c r="M9" s="31"/>
+      <c r="L9" s="29"/>
+      <c r="M9" s="30"/>
     </row>
     <row r="10" ht="20" customHeight="1" spans="1:13">
-      <c r="A10" s="16">
-        <v>8</v>
-      </c>
-      <c r="B10" s="17" t="s">
-        <v>32</v>
+      <c r="A10" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="B10" s="16" t="s">
+        <v>41</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="D10" s="8">
         <v>2</v>
@@ -1896,18 +1960,18 @@
       <c r="I10" s="8"/>
       <c r="J10" s="8"/>
       <c r="K10" s="8"/>
-      <c r="L10" s="32"/>
-      <c r="M10" s="31"/>
+      <c r="L10" s="31"/>
+      <c r="M10" s="30"/>
     </row>
     <row r="11" ht="20" customHeight="1" spans="1:13">
-      <c r="A11" s="11" t="s">
-        <v>34</v>
+      <c r="A11" s="17" t="s">
+        <v>43</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="C11" s="13" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="D11" s="14">
         <v>2</v>
@@ -1923,18 +1987,18 @@
       <c r="I11" s="14"/>
       <c r="J11" s="14"/>
       <c r="K11" s="14"/>
-      <c r="L11" s="30"/>
-      <c r="M11" s="31"/>
+      <c r="L11" s="29"/>
+      <c r="M11" s="30"/>
     </row>
     <row r="12" ht="20" customHeight="1" spans="1:13">
-      <c r="A12" s="16">
-        <v>10</v>
-      </c>
-      <c r="B12" s="17" t="s">
-        <v>37</v>
+      <c r="A12" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="B12" s="16" t="s">
+        <v>47</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="D12" s="8">
         <v>2</v>
@@ -1950,18 +2014,18 @@
       <c r="I12" s="8"/>
       <c r="J12" s="8"/>
       <c r="K12" s="8"/>
-      <c r="L12" s="32"/>
-      <c r="M12" s="31"/>
+      <c r="L12" s="31"/>
+      <c r="M12" s="30"/>
     </row>
     <row r="13" ht="20" customHeight="1" spans="1:13">
-      <c r="A13" s="11">
-        <v>11</v>
+      <c r="A13" s="11" t="s">
+        <v>49</v>
       </c>
       <c r="B13" s="12" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="C13" s="13" t="s">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="D13" s="14">
         <v>3</v>
@@ -1977,18 +2041,18 @@
       <c r="I13" s="14"/>
       <c r="J13" s="14"/>
       <c r="K13" s="14"/>
-      <c r="L13" s="30"/>
-      <c r="M13" s="31"/>
+      <c r="L13" s="29"/>
+      <c r="M13" s="30"/>
     </row>
     <row r="14" ht="20" customHeight="1" spans="1:13">
-      <c r="A14" s="16">
-        <v>12</v>
-      </c>
-      <c r="B14" s="17" t="s">
-        <v>41</v>
+      <c r="A14" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="B14" s="16" t="s">
+        <v>53</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="D14" s="8">
         <v>3</v>
@@ -2004,18 +2068,18 @@
       <c r="I14" s="8"/>
       <c r="J14" s="8"/>
       <c r="K14" s="8"/>
-      <c r="L14" s="32"/>
-      <c r="M14" s="31"/>
+      <c r="L14" s="31"/>
+      <c r="M14" s="30"/>
     </row>
     <row r="15" ht="20" customHeight="1" spans="1:13">
-      <c r="A15" s="11">
-        <v>13</v>
+      <c r="A15" s="11" t="s">
+        <v>55</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="C15" s="13" t="s">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="D15" s="14">
         <v>3</v>
@@ -2031,18 +2095,18 @@
       <c r="I15" s="14"/>
       <c r="J15" s="14"/>
       <c r="K15" s="14"/>
-      <c r="L15" s="30"/>
-      <c r="M15" s="31"/>
+      <c r="L15" s="29"/>
+      <c r="M15" s="30"/>
     </row>
     <row r="16" ht="20" customHeight="1" spans="1:13">
-      <c r="A16" s="16">
-        <v>14</v>
-      </c>
-      <c r="B16" s="17" t="s">
-        <v>45</v>
+      <c r="A16" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="B16" s="16" t="s">
+        <v>59</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>46</v>
+        <v>60</v>
       </c>
       <c r="D16" s="8">
         <v>3</v>
@@ -2058,18 +2122,18 @@
       <c r="I16" s="8"/>
       <c r="J16" s="8"/>
       <c r="K16" s="8"/>
-      <c r="L16" s="32"/>
-      <c r="M16" s="31"/>
+      <c r="L16" s="31"/>
+      <c r="M16" s="30"/>
     </row>
     <row r="17" ht="20" customHeight="1" spans="1:13">
-      <c r="A17" s="11">
-        <v>15</v>
+      <c r="A17" s="11" t="s">
+        <v>61</v>
       </c>
       <c r="B17" s="12" t="s">
-        <v>47</v>
+        <v>62</v>
       </c>
       <c r="C17" s="13" t="s">
-        <v>48</v>
+        <v>63</v>
       </c>
       <c r="D17" s="14">
         <v>3</v>
@@ -2085,18 +2149,18 @@
       <c r="I17" s="14"/>
       <c r="J17" s="14"/>
       <c r="K17" s="14"/>
-      <c r="L17" s="30"/>
-      <c r="M17" s="31"/>
+      <c r="L17" s="29"/>
+      <c r="M17" s="30"/>
     </row>
     <row r="18" ht="20" customHeight="1" spans="1:13">
-      <c r="A18" s="16">
-        <v>16</v>
-      </c>
-      <c r="B18" s="17" t="s">
-        <v>49</v>
+      <c r="A18" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="B18" s="16" t="s">
+        <v>65</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>50</v>
+        <v>66</v>
       </c>
       <c r="D18" s="8">
         <v>4</v>
@@ -2112,18 +2176,18 @@
       <c r="I18" s="8"/>
       <c r="J18" s="8"/>
       <c r="K18" s="8"/>
-      <c r="L18" s="32"/>
-      <c r="M18" s="31"/>
+      <c r="L18" s="31"/>
+      <c r="M18" s="30"/>
     </row>
     <row r="19" ht="20" customHeight="1" spans="1:13">
-      <c r="A19" s="11">
-        <v>17</v>
+      <c r="A19" s="17" t="s">
+        <v>67</v>
       </c>
       <c r="B19" s="12" t="s">
-        <v>51</v>
+        <v>68</v>
       </c>
       <c r="C19" s="13" t="s">
-        <v>52</v>
+        <v>69</v>
       </c>
       <c r="D19" s="14">
         <v>4</v>
@@ -2139,18 +2203,18 @@
       <c r="I19" s="14"/>
       <c r="J19" s="14"/>
       <c r="K19" s="14"/>
-      <c r="L19" s="30"/>
-      <c r="M19" s="31"/>
+      <c r="L19" s="29"/>
+      <c r="M19" s="30"/>
     </row>
     <row r="20" ht="20" customHeight="1" spans="1:13">
-      <c r="A20" s="16">
-        <v>18</v>
-      </c>
-      <c r="B20" s="17" t="s">
-        <v>53</v>
+      <c r="A20" s="17" t="s">
+        <v>70</v>
+      </c>
+      <c r="B20" s="16" t="s">
+        <v>71</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>54</v>
+        <v>72</v>
       </c>
       <c r="D20" s="8">
         <v>4</v>
@@ -2166,18 +2230,18 @@
       <c r="I20" s="8"/>
       <c r="J20" s="8"/>
       <c r="K20" s="8"/>
-      <c r="L20" s="32"/>
-      <c r="M20" s="31"/>
+      <c r="L20" s="31"/>
+      <c r="M20" s="30"/>
     </row>
     <row r="21" ht="20" customHeight="1" spans="1:13">
-      <c r="A21" s="11">
-        <v>19</v>
+      <c r="A21" s="17" t="s">
+        <v>73</v>
       </c>
       <c r="B21" s="12" t="s">
-        <v>55</v>
+        <v>74</v>
       </c>
       <c r="C21" s="13" t="s">
-        <v>56</v>
+        <v>75</v>
       </c>
       <c r="D21" s="14">
         <v>4</v>
@@ -2193,18 +2257,18 @@
       <c r="I21" s="14"/>
       <c r="J21" s="14"/>
       <c r="K21" s="14"/>
-      <c r="L21" s="30"/>
-      <c r="M21" s="31"/>
+      <c r="L21" s="29"/>
+      <c r="M21" s="30"/>
     </row>
     <row r="22" ht="20" customHeight="1" spans="1:13">
-      <c r="A22" s="16">
-        <v>20</v>
-      </c>
-      <c r="B22" s="17" t="s">
-        <v>57</v>
+      <c r="A22" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="B22" s="16" t="s">
+        <v>77</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>58</v>
+        <v>78</v>
       </c>
       <c r="D22" s="8">
         <v>4</v>
@@ -2220,18 +2284,18 @@
       <c r="I22" s="8"/>
       <c r="J22" s="8"/>
       <c r="K22" s="8"/>
-      <c r="L22" s="32"/>
-      <c r="M22" s="31"/>
+      <c r="L22" s="31"/>
+      <c r="M22" s="30"/>
     </row>
     <row r="23" ht="20" customHeight="1" spans="1:13">
-      <c r="A23" s="11">
-        <v>21</v>
+      <c r="A23" s="11" t="s">
+        <v>79</v>
       </c>
       <c r="B23" s="12" t="s">
-        <v>59</v>
+        <v>80</v>
       </c>
       <c r="C23" s="13" t="s">
-        <v>60</v>
+        <v>81</v>
       </c>
       <c r="D23" s="14">
         <v>5</v>
@@ -2247,18 +2311,18 @@
       <c r="I23" s="14"/>
       <c r="J23" s="14"/>
       <c r="K23" s="14"/>
-      <c r="L23" s="30"/>
-      <c r="M23" s="31"/>
+      <c r="L23" s="29"/>
+      <c r="M23" s="30"/>
     </row>
     <row r="24" ht="20" customHeight="1" spans="1:13">
-      <c r="A24" s="16">
-        <v>22</v>
-      </c>
-      <c r="B24" s="17" t="s">
-        <v>61</v>
+      <c r="A24" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="B24" s="16" t="s">
+        <v>83</v>
       </c>
       <c r="C24" s="18" t="s">
-        <v>62</v>
+        <v>84</v>
       </c>
       <c r="D24" s="8">
         <v>5</v>
@@ -2274,18 +2338,18 @@
       <c r="I24" s="19"/>
       <c r="J24" s="19"/>
       <c r="K24" s="19"/>
-      <c r="L24" s="33"/>
-      <c r="M24" s="31"/>
+      <c r="L24" s="32"/>
+      <c r="M24" s="30"/>
     </row>
     <row r="25" ht="20" customHeight="1" spans="1:13">
-      <c r="A25" s="11">
-        <v>23</v>
+      <c r="A25" s="11" t="s">
+        <v>85</v>
       </c>
       <c r="B25" s="12" t="s">
-        <v>63</v>
+        <v>86</v>
       </c>
       <c r="C25" s="20" t="s">
-        <v>64</v>
+        <v>87</v>
       </c>
       <c r="D25" s="14">
         <v>5</v>
@@ -2301,18 +2365,18 @@
       <c r="I25" s="21"/>
       <c r="J25" s="21"/>
       <c r="K25" s="21"/>
-      <c r="L25" s="34"/>
-      <c r="M25" s="31"/>
+      <c r="L25" s="33"/>
+      <c r="M25" s="30"/>
     </row>
     <row r="26" ht="20" customHeight="1" spans="1:13">
-      <c r="A26" s="16">
-        <v>24</v>
+      <c r="A26" s="17" t="s">
+        <v>88</v>
       </c>
       <c r="B26" s="18" t="s">
-        <v>65</v>
+        <v>89</v>
       </c>
       <c r="C26" s="18" t="s">
-        <v>66</v>
+        <v>90</v>
       </c>
       <c r="D26" s="19">
         <v>6</v>
@@ -2328,18 +2392,18 @@
       <c r="I26" s="19"/>
       <c r="J26" s="19"/>
       <c r="K26" s="19"/>
-      <c r="L26" s="33"/>
-      <c r="M26" s="31"/>
+      <c r="L26" s="32"/>
+      <c r="M26" s="30"/>
     </row>
     <row r="27" ht="20" customHeight="1" spans="1:13">
-      <c r="A27" s="11">
-        <v>25</v>
+      <c r="A27" s="17" t="s">
+        <v>91</v>
       </c>
       <c r="B27" s="20" t="s">
-        <v>67</v>
+        <v>92</v>
       </c>
       <c r="C27" s="20" t="s">
-        <v>68</v>
+        <v>93</v>
       </c>
       <c r="D27" s="21">
         <v>6</v>
@@ -2355,37 +2419,36 @@
       <c r="I27" s="21"/>
       <c r="J27" s="21"/>
       <c r="K27" s="21"/>
-      <c r="L27" s="34"/>
-      <c r="M27" s="31"/>
+      <c r="L27" s="33"/>
+      <c r="M27" s="30"/>
     </row>
     <row r="28" ht="20" customHeight="1" spans="1:13">
-      <c r="A28" s="22">
-        <v>26</v>
-      </c>
-      <c r="B28" s="23" t="s">
-        <v>69</v>
-      </c>
-      <c r="C28" s="23" t="s">
-        <v>70</v>
-      </c>
-      <c r="D28" s="24">
+      <c r="A28" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="B28" s="22" t="s">
+        <v>95</v>
+      </c>
+      <c r="C28" s="22" t="s">
+        <v>96</v>
+      </c>
+      <c r="D28" s="23">
         <v>6</v>
       </c>
-      <c r="E28" s="25">
+      <c r="E28" s="24">
         <v>6</v>
       </c>
-      <c r="F28" s="25">
+      <c r="F28" s="24">
         <v>3</v>
       </c>
-      <c r="G28" s="24"/>
-      <c r="H28" s="24"/>
-      <c r="I28" s="24"/>
-      <c r="J28" s="24"/>
-      <c r="K28" s="24"/>
-      <c r="L28" s="35"/>
-      <c r="M28" s="31"/>
-    </row>
-    <row r="29" ht="15"/>
+      <c r="G28" s="23"/>
+      <c r="H28" s="23"/>
+      <c r="I28" s="23"/>
+      <c r="J28" s="23"/>
+      <c r="K28" s="23"/>
+      <c r="L28" s="34"/>
+      <c r="M28" s="30"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/excels/config/game/element_bond.xlsx
+++ b/excels/config/game/element_bond.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="111">
   <si>
     <t>序号</t>
   </si>
@@ -95,6 +95,11 @@
     <t>火元素技能伤害+10%</t>
   </si>
   <si>
+    <t>Fire_DamageMul {
+"Base" "10"
+}</t>
+  </si>
+  <si>
     <t>fire_4</t>
   </si>
   <si>
@@ -131,6 +136,16 @@
     <t>火元素暴击概率+25%，火元素暴击伤害+50%</t>
   </si>
   <si>
+    <t>Fire_CritProb {
+"Base" "25"
+}</t>
+  </si>
+  <si>
+    <t>Fire_CritDmg {
+"Base" "50"
+}</t>
+  </si>
+  <si>
     <t>ice_3</t>
   </si>
   <si>
@@ -140,6 +155,11 @@
     <t>冰元素技能伤害+10%</t>
   </si>
   <si>
+    <t>Ice_DamageMul {
+"Base" "10"
+}</t>
+  </si>
+  <si>
     <t>ice_4</t>
   </si>
   <si>
@@ -176,6 +196,11 @@
     <t>冰元素暴击概率+25%，对冰冻的单位必定暴击</t>
   </si>
   <si>
+    <t>Ice_CritProb {
+"Base" "25"
+}</t>
+  </si>
+  <si>
     <t>thunder_3</t>
   </si>
   <si>
@@ -185,6 +210,11 @@
     <t>雷元素技能极速+10</t>
   </si>
   <si>
+    <t>Thunder_Haste {
+"Base" "10"
+}</t>
+  </si>
+  <si>
     <t>thunder_4</t>
   </si>
   <si>
@@ -221,6 +251,16 @@
     <t>雷元素暴击概率+25%，雷元素抗性穿透+25%</t>
   </si>
   <si>
+    <t>Thunder_CritProb {
+"Base" "25"
+}</t>
+  </si>
+  <si>
+    <t>Thunder_ResistPenet {
+"Base" "25"
+}</t>
+  </si>
+  <si>
     <t>wind_3</t>
   </si>
   <si>
@@ -230,6 +270,11 @@
     <t>风元素伤害+10%</t>
   </si>
   <si>
+    <t>Wind_DamageMul {
+"Base" "10"
+}</t>
+  </si>
+  <si>
     <t>wind_4</t>
   </si>
   <si>
@@ -257,6 +302,11 @@
     <t>风元素抗性穿透+30%</t>
   </si>
   <si>
+    <t>Wind_ResistPenet {
+"Base" "30"
+}</t>
+  </si>
+  <si>
     <t>wind_7</t>
   </si>
   <si>
@@ -266,6 +316,11 @@
     <t>风元素暴击概率+25%，增伤持续时间改为5秒，增伤+35%</t>
   </si>
   <si>
+    <t>Wind_CritProb {
+"Base" "25"
+}</t>
+  </si>
+  <si>
     <t>light_4</t>
   </si>
   <si>
@@ -275,6 +330,11 @@
     <t>技能极速+50</t>
   </si>
   <si>
+    <t>AbilityHaste {
+"Base" "50"
+}</t>
+  </si>
+  <si>
     <t>light_5</t>
   </si>
   <si>
@@ -284,6 +344,11 @@
     <t>光元素造成伤害无视抗性增加为30%</t>
   </si>
   <si>
+    <t>Light_ResistPenet {
+"Base" "30"
+}</t>
+  </si>
+  <si>
     <t>light_6</t>
   </si>
   <si>
@@ -291,6 +356,11 @@
   </si>
   <si>
     <t>生命恢复收益（回血、吸血等）的效果增加50%</t>
+  </si>
+  <si>
+    <t>HealthIncome {
+"Base" "50"
+}</t>
   </si>
   <si>
     <t>dark_4</t>
@@ -330,7 +400,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="25">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -349,13 +419,6 @@
       <sz val="11"/>
       <color theme="0"/>
       <name val="Microsoft YaHei"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color theme="0"/>
-      <name val="Microsoft YaHei UI"/>
       <charset val="134"/>
     </font>
     <font>
@@ -728,7 +791,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="21">
+  <borders count="22">
     <border>
       <left/>
       <right/>
@@ -811,6 +874,19 @@
       </top>
       <bottom style="thin">
         <color rgb="FF5A5A5A"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FF595959"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFFFFFFF"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color rgb="FF595959"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1006,239 +1082,218 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="7" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="4" xfId="50" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="4" xfId="50" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="10" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="4" xfId="50" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="11" xfId="50" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="10" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="10" xfId="50" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="9" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="51">
@@ -1375,7 +1430,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="黑色中色系标题行镶边行表格样式" count="3" xr9:uid="{4B3A049A-9D90-499B-8D92-89B85C19ED5E}">
+    <tableStyle name="黑色中色系标题行镶边行表格样式" count="3" xr9:uid="{814BC3AC-F529-4ACB-833E-A6BBB081C644}">
       <tableStyleElement type="wholeTable" dxfId="2"/>
       <tableStyleElement type="headerRow" dxfId="1"/>
       <tableStyleElement type="secondRowStripe" dxfId="0"/>
@@ -1661,25 +1716,23 @@
   <dimension ref="A1:M28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="16.25" customWidth="1"/>
-    <col min="2" max="2" width="13.3416666666667" style="1" customWidth="1"/>
-    <col min="3" max="3" width="61" style="1" customWidth="1"/>
-    <col min="4" max="4" width="16.375" customWidth="1"/>
-    <col min="5" max="5" width="16.675" customWidth="1"/>
-    <col min="6" max="6" width="12.3416666666667" customWidth="1"/>
-    <col min="7" max="7" width="15" customWidth="1"/>
-    <col min="8" max="8" width="21.8416666666667" customWidth="1"/>
-    <col min="9" max="9" width="14.3416666666667" customWidth="1"/>
-    <col min="10" max="10" width="16.8416666666667" customWidth="1"/>
-    <col min="11" max="12" width="6.24166666666667" customWidth="1"/>
+    <col min="1" max="1" width="11.0083333333333" customWidth="1"/>
+    <col min="2" max="2" width="9.00833333333333" style="1" customWidth="1"/>
+    <col min="3" max="3" width="40.625" style="1" customWidth="1"/>
+    <col min="4" max="5" width="14.675" customWidth="1"/>
+    <col min="6" max="6" width="10.3416666666667" customWidth="1"/>
+    <col min="7" max="7" width="15.175" customWidth="1"/>
+    <col min="8" max="8" width="19.8416666666667" customWidth="1"/>
+    <col min="9" max="9" width="22.0083333333333" customWidth="1"/>
+    <col min="10" max="12" width="4.24166666666667" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="22.5" customHeight="1" spans="1:13">
+    <row r="1" ht="18.5" customHeight="1" spans="1:13">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1689,765 +1742,793 @@
       <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
-      <c r="J1" s="5"/>
-      <c r="K1" s="5"/>
-      <c r="L1" s="25"/>
-      <c r="M1" s="26"/>
-    </row>
-    <row r="2" ht="22.5" customHeight="1" spans="1:13">
-      <c r="A2" s="6" t="s">
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
+      <c r="K1" s="4"/>
+      <c r="L1" s="19"/>
+      <c r="M1" s="20"/>
+    </row>
+    <row r="2" ht="18.5" customHeight="1" spans="1:13">
+      <c r="A2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="7"/>
+      <c r="B2" s="6"/>
       <c r="C2" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="E2" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="F2" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="9" t="s">
+      <c r="G2" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="10" t="s">
+      <c r="H2" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="I2" s="10" t="s">
+      <c r="I2" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="J2" s="10" t="s">
+      <c r="J2" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="K2" s="10" t="s">
+      <c r="K2" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="L2" s="27" t="s">
+      <c r="L2" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="M2" s="28" t="s">
+      <c r="M2" s="23" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="3" ht="20" customHeight="1" spans="1:13">
-      <c r="A3" s="11" t="s">
+    <row r="3" ht="51.5" customHeight="1" spans="1:13">
+      <c r="A3" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="C3" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="D3" s="14">
+      <c r="D3" s="13">
         <v>1</v>
       </c>
-      <c r="E3" s="15">
+      <c r="E3" s="11">
         <v>3</v>
       </c>
-      <c r="F3" s="15">
+      <c r="F3" s="11">
         <v>1</v>
       </c>
-      <c r="G3" s="14"/>
-      <c r="H3" s="14"/>
-      <c r="I3" s="14"/>
-      <c r="J3" s="14"/>
-      <c r="K3" s="14"/>
-      <c r="L3" s="29"/>
-      <c r="M3" s="30"/>
-    </row>
-    <row r="4" ht="20" customHeight="1" spans="1:13">
-      <c r="A4" s="11" t="s">
+      <c r="G3" s="13"/>
+      <c r="H3" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="B4" s="16" t="s">
+      <c r="I3" s="12"/>
+      <c r="J3" s="13"/>
+      <c r="K3" s="13"/>
+      <c r="L3" s="24"/>
+      <c r="M3" s="25"/>
+    </row>
+    <row r="4" ht="18.5" customHeight="1" spans="1:13">
+      <c r="A4" s="14" t="s">
         <v>23</v>
       </c>
+      <c r="B4" s="8" t="s">
+        <v>24</v>
+      </c>
       <c r="C4" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D4" s="8">
+        <v>25</v>
+      </c>
+      <c r="D4" s="6">
         <v>1</v>
       </c>
-      <c r="E4" s="9">
+      <c r="E4" s="8">
         <v>4</v>
       </c>
-      <c r="F4" s="9">
+      <c r="F4" s="8">
         <v>2</v>
       </c>
-      <c r="G4" s="8"/>
-      <c r="H4" s="8"/>
-      <c r="I4" s="8"/>
-      <c r="J4" s="8"/>
-      <c r="K4" s="8"/>
-      <c r="L4" s="31"/>
-      <c r="M4" s="30"/>
-    </row>
-    <row r="5" ht="20" customHeight="1" spans="1:13">
-      <c r="A5" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="B5" s="12" t="s">
+      <c r="G4" s="6"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="6"/>
+      <c r="K4" s="6"/>
+      <c r="L4" s="26"/>
+      <c r="M4" s="25"/>
+    </row>
+    <row r="5" ht="18.5" customHeight="1" spans="1:13">
+      <c r="A5" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="C5" s="13" t="s">
+      <c r="B5" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="D5" s="14">
+      <c r="C5" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5" s="13">
         <v>1</v>
       </c>
-      <c r="E5" s="15">
+      <c r="E5" s="11">
         <v>5</v>
       </c>
-      <c r="F5" s="15">
+      <c r="F5" s="11">
         <v>3</v>
       </c>
-      <c r="G5" s="14"/>
-      <c r="H5" s="14"/>
-      <c r="I5" s="14"/>
-      <c r="J5" s="14"/>
-      <c r="K5" s="14"/>
-      <c r="L5" s="29"/>
-      <c r="M5" s="30"/>
-    </row>
-    <row r="6" ht="20" customHeight="1" spans="1:13">
-      <c r="A6" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="B6" s="16" t="s">
+      <c r="G5" s="13"/>
+      <c r="H5" s="13"/>
+      <c r="I5" s="12"/>
+      <c r="J5" s="13"/>
+      <c r="K5" s="13"/>
+      <c r="L5" s="24"/>
+      <c r="M5" s="25"/>
+    </row>
+    <row r="6" ht="18.5" customHeight="1" spans="1:13">
+      <c r="A6" s="14" t="s">
         <v>29</v>
       </c>
+      <c r="B6" s="8" t="s">
+        <v>30</v>
+      </c>
       <c r="C6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="D6" s="8">
+        <v>31</v>
+      </c>
+      <c r="D6" s="6">
         <v>1</v>
       </c>
-      <c r="E6" s="9">
+      <c r="E6" s="8">
         <v>6</v>
       </c>
-      <c r="F6" s="9">
+      <c r="F6" s="8">
         <v>4</v>
       </c>
-      <c r="G6" s="8"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="8"/>
-      <c r="J6" s="8"/>
-      <c r="K6" s="8"/>
-      <c r="L6" s="31"/>
-      <c r="M6" s="30"/>
-    </row>
-    <row r="7" ht="20" customHeight="1" spans="1:13">
-      <c r="A7" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="B7" s="12" t="s">
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="6"/>
+      <c r="K6" s="6"/>
+      <c r="L6" s="26"/>
+      <c r="M6" s="25"/>
+    </row>
+    <row r="7" ht="51.5" customHeight="1" spans="1:13">
+      <c r="A7" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="C7" s="13" t="s">
+      <c r="B7" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="D7" s="14">
+      <c r="C7" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="D7" s="13">
         <v>1</v>
       </c>
-      <c r="E7" s="15">
+      <c r="E7" s="11">
         <v>7</v>
       </c>
-      <c r="F7" s="15">
+      <c r="F7" s="11">
         <v>5</v>
       </c>
-      <c r="G7" s="14"/>
-      <c r="H7" s="14"/>
-      <c r="I7" s="14"/>
-      <c r="J7" s="14"/>
-      <c r="K7" s="14"/>
-      <c r="L7" s="29"/>
-      <c r="M7" s="30"/>
-    </row>
-    <row r="8" ht="20" customHeight="1" spans="1:13">
-      <c r="A8" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="B8" s="16" t="s">
+      <c r="G7" s="13"/>
+      <c r="H7" s="13" t="s">
         <v>35</v>
       </c>
+      <c r="I7" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="J7" s="13"/>
+      <c r="K7" s="13"/>
+      <c r="L7" s="24"/>
+      <c r="M7" s="25"/>
+    </row>
+    <row r="8" ht="51.5" customHeight="1" spans="1:13">
+      <c r="A8" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>38</v>
+      </c>
       <c r="C8" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="D8" s="8">
+        <v>39</v>
+      </c>
+      <c r="D8" s="6">
         <v>2</v>
       </c>
-      <c r="E8" s="9">
+      <c r="E8" s="8">
         <v>3</v>
       </c>
-      <c r="F8" s="9">
+      <c r="F8" s="8">
         <v>1</v>
       </c>
-      <c r="G8" s="8"/>
-      <c r="H8" s="8"/>
-      <c r="I8" s="8"/>
-      <c r="J8" s="8"/>
-      <c r="K8" s="8"/>
-      <c r="L8" s="31"/>
-      <c r="M8" s="30"/>
-    </row>
-    <row r="9" ht="20" customHeight="1" spans="1:13">
-      <c r="A9" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="B9" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="C9" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="D9" s="14">
+      <c r="G8" s="6"/>
+      <c r="H8" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="I8" s="7"/>
+      <c r="J8" s="6"/>
+      <c r="K8" s="6"/>
+      <c r="L8" s="26"/>
+      <c r="M8" s="25"/>
+    </row>
+    <row r="9" ht="18.5" customHeight="1" spans="1:13">
+      <c r="A9" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="D9" s="13">
         <v>2</v>
       </c>
-      <c r="E9" s="15">
+      <c r="E9" s="11">
         <v>4</v>
       </c>
-      <c r="F9" s="15">
+      <c r="F9" s="11">
         <v>2</v>
       </c>
-      <c r="G9" s="14"/>
-      <c r="H9" s="14"/>
-      <c r="I9" s="14"/>
-      <c r="J9" s="14"/>
-      <c r="K9" s="14"/>
-      <c r="L9" s="29"/>
-      <c r="M9" s="30"/>
-    </row>
-    <row r="10" ht="20" customHeight="1" spans="1:13">
-      <c r="A10" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="B10" s="16" t="s">
-        <v>41</v>
+      <c r="G9" s="13"/>
+      <c r="H9" s="13"/>
+      <c r="I9" s="12"/>
+      <c r="J9" s="13"/>
+      <c r="K9" s="13"/>
+      <c r="L9" s="24"/>
+      <c r="M9" s="25"/>
+    </row>
+    <row r="10" ht="18.5" customHeight="1" spans="1:13">
+      <c r="A10" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>45</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="D10" s="8">
+        <v>46</v>
+      </c>
+      <c r="D10" s="6">
         <v>2</v>
       </c>
-      <c r="E10" s="9">
+      <c r="E10" s="8">
         <v>5</v>
       </c>
-      <c r="F10" s="9">
+      <c r="F10" s="8">
         <v>3</v>
       </c>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8"/>
-      <c r="I10" s="8"/>
-      <c r="J10" s="8"/>
-      <c r="K10" s="8"/>
-      <c r="L10" s="31"/>
-      <c r="M10" s="30"/>
-    </row>
-    <row r="11" ht="20" customHeight="1" spans="1:13">
-      <c r="A11" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="B11" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="C11" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="D11" s="14">
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="6"/>
+      <c r="K10" s="6"/>
+      <c r="L10" s="26"/>
+      <c r="M10" s="25"/>
+    </row>
+    <row r="11" ht="18.5" customHeight="1" spans="1:13">
+      <c r="A11" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="D11" s="13">
         <v>2</v>
       </c>
-      <c r="E11" s="15">
+      <c r="E11" s="11">
         <v>6</v>
       </c>
-      <c r="F11" s="15">
+      <c r="F11" s="11">
         <v>4</v>
       </c>
-      <c r="G11" s="14"/>
-      <c r="H11" s="14"/>
-      <c r="I11" s="14"/>
-      <c r="J11" s="14"/>
-      <c r="K11" s="14"/>
-      <c r="L11" s="29"/>
-      <c r="M11" s="30"/>
-    </row>
-    <row r="12" ht="20" customHeight="1" spans="1:13">
-      <c r="A12" s="17" t="s">
-        <v>46</v>
-      </c>
-      <c r="B12" s="16" t="s">
-        <v>47</v>
+      <c r="G11" s="13"/>
+      <c r="H11" s="13"/>
+      <c r="I11" s="12"/>
+      <c r="J11" s="13"/>
+      <c r="K11" s="13"/>
+      <c r="L11" s="24"/>
+      <c r="M11" s="25"/>
+    </row>
+    <row r="12" ht="51.5" customHeight="1" spans="1:13">
+      <c r="A12" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>51</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="D12" s="8">
+        <v>52</v>
+      </c>
+      <c r="D12" s="6">
         <v>2</v>
       </c>
-      <c r="E12" s="9">
+      <c r="E12" s="8">
         <v>7</v>
       </c>
-      <c r="F12" s="9">
+      <c r="F12" s="8">
         <v>5</v>
       </c>
-      <c r="G12" s="8"/>
-      <c r="H12" s="8"/>
-      <c r="I12" s="8"/>
-      <c r="J12" s="8"/>
-      <c r="K12" s="8"/>
-      <c r="L12" s="31"/>
-      <c r="M12" s="30"/>
-    </row>
-    <row r="13" ht="20" customHeight="1" spans="1:13">
-      <c r="A13" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="B13" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="C13" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="D13" s="14">
+      <c r="G12" s="6"/>
+      <c r="H12" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="I12" s="7"/>
+      <c r="J12" s="6"/>
+      <c r="K12" s="6"/>
+      <c r="L12" s="26"/>
+      <c r="M12" s="25"/>
+    </row>
+    <row r="13" ht="51.5" customHeight="1" spans="1:13">
+      <c r="A13" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="C13" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="D13" s="13">
         <v>3</v>
       </c>
-      <c r="E13" s="15">
+      <c r="E13" s="11">
         <v>3</v>
       </c>
-      <c r="F13" s="15">
+      <c r="F13" s="11">
         <v>1</v>
       </c>
-      <c r="G13" s="14"/>
-      <c r="H13" s="14"/>
-      <c r="I13" s="14"/>
-      <c r="J13" s="14"/>
-      <c r="K13" s="14"/>
-      <c r="L13" s="29"/>
-      <c r="M13" s="30"/>
-    </row>
-    <row r="14" ht="20" customHeight="1" spans="1:13">
-      <c r="A14" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="B14" s="16" t="s">
-        <v>53</v>
+      <c r="G13" s="13"/>
+      <c r="H13" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="I13" s="12"/>
+      <c r="J13" s="13"/>
+      <c r="K13" s="13"/>
+      <c r="L13" s="24"/>
+      <c r="M13" s="25"/>
+    </row>
+    <row r="14" ht="18.5" customHeight="1" spans="1:13">
+      <c r="A14" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>59</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="D14" s="8">
+        <v>60</v>
+      </c>
+      <c r="D14" s="6">
         <v>3</v>
       </c>
-      <c r="E14" s="9">
+      <c r="E14" s="8">
         <v>4</v>
       </c>
-      <c r="F14" s="9">
+      <c r="F14" s="8">
         <v>2</v>
       </c>
-      <c r="G14" s="8"/>
-      <c r="H14" s="8"/>
-      <c r="I14" s="8"/>
-      <c r="J14" s="8"/>
-      <c r="K14" s="8"/>
-      <c r="L14" s="31"/>
-      <c r="M14" s="30"/>
-    </row>
-    <row r="15" ht="20" customHeight="1" spans="1:13">
-      <c r="A15" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="B15" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="C15" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="D15" s="14">
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
+      <c r="I14" s="7"/>
+      <c r="J14" s="6"/>
+      <c r="K14" s="6"/>
+      <c r="L14" s="26"/>
+      <c r="M14" s="25"/>
+    </row>
+    <row r="15" ht="18.5" customHeight="1" spans="1:13">
+      <c r="A15" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="C15" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="D15" s="13">
         <v>3</v>
       </c>
-      <c r="E15" s="15">
+      <c r="E15" s="11">
         <v>5</v>
       </c>
-      <c r="F15" s="15">
+      <c r="F15" s="11">
         <v>3</v>
       </c>
-      <c r="G15" s="14"/>
-      <c r="H15" s="14"/>
-      <c r="I15" s="14"/>
-      <c r="J15" s="14"/>
-      <c r="K15" s="14"/>
-      <c r="L15" s="29"/>
-      <c r="M15" s="30"/>
-    </row>
-    <row r="16" ht="20" customHeight="1" spans="1:13">
-      <c r="A16" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="B16" s="16" t="s">
-        <v>59</v>
+      <c r="G15" s="13"/>
+      <c r="H15" s="13"/>
+      <c r="I15" s="12"/>
+      <c r="J15" s="13"/>
+      <c r="K15" s="13"/>
+      <c r="L15" s="24"/>
+      <c r="M15" s="25"/>
+    </row>
+    <row r="16" ht="18.5" customHeight="1" spans="1:13">
+      <c r="A16" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>65</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="D16" s="8">
+        <v>66</v>
+      </c>
+      <c r="D16" s="6">
         <v>3</v>
       </c>
-      <c r="E16" s="9">
+      <c r="E16" s="8">
         <v>6</v>
       </c>
-      <c r="F16" s="9">
+      <c r="F16" s="8">
         <v>4</v>
       </c>
-      <c r="G16" s="8"/>
-      <c r="H16" s="8"/>
-      <c r="I16" s="8"/>
-      <c r="J16" s="8"/>
-      <c r="K16" s="8"/>
-      <c r="L16" s="31"/>
-      <c r="M16" s="30"/>
-    </row>
-    <row r="17" ht="20" customHeight="1" spans="1:13">
-      <c r="A17" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="B17" s="12" t="s">
-        <v>62</v>
-      </c>
-      <c r="C17" s="13" t="s">
-        <v>63</v>
-      </c>
-      <c r="D17" s="14">
+      <c r="G16" s="6"/>
+      <c r="H16" s="6"/>
+      <c r="I16" s="7"/>
+      <c r="J16" s="6"/>
+      <c r="K16" s="6"/>
+      <c r="L16" s="26"/>
+      <c r="M16" s="25"/>
+    </row>
+    <row r="17" ht="51.5" customHeight="1" spans="1:13">
+      <c r="A17" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="B17" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="C17" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="D17" s="13">
         <v>3</v>
       </c>
-      <c r="E17" s="15">
+      <c r="E17" s="11">
         <v>7</v>
       </c>
-      <c r="F17" s="15">
+      <c r="F17" s="11">
         <v>5</v>
       </c>
-      <c r="G17" s="14"/>
-      <c r="H17" s="14"/>
-      <c r="I17" s="14"/>
-      <c r="J17" s="14"/>
-      <c r="K17" s="14"/>
-      <c r="L17" s="29"/>
-      <c r="M17" s="30"/>
-    </row>
-    <row r="18" ht="20" customHeight="1" spans="1:13">
-      <c r="A18" s="17" t="s">
-        <v>64</v>
-      </c>
-      <c r="B18" s="16" t="s">
-        <v>65</v>
+      <c r="G17" s="13"/>
+      <c r="H17" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="I17" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="J17" s="13"/>
+      <c r="K17" s="13"/>
+      <c r="L17" s="24"/>
+      <c r="M17" s="25"/>
+    </row>
+    <row r="18" ht="51.5" customHeight="1" spans="1:13">
+      <c r="A18" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>73</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="D18" s="8">
+        <v>74</v>
+      </c>
+      <c r="D18" s="6">
         <v>4</v>
       </c>
-      <c r="E18" s="9">
+      <c r="E18" s="8">
         <v>3</v>
       </c>
-      <c r="F18" s="9">
+      <c r="F18" s="8">
         <v>1</v>
       </c>
-      <c r="G18" s="8"/>
-      <c r="H18" s="8"/>
-      <c r="I18" s="8"/>
-      <c r="J18" s="8"/>
-      <c r="K18" s="8"/>
-      <c r="L18" s="31"/>
-      <c r="M18" s="30"/>
-    </row>
-    <row r="19" ht="20" customHeight="1" spans="1:13">
-      <c r="A19" s="17" t="s">
-        <v>67</v>
-      </c>
-      <c r="B19" s="12" t="s">
-        <v>68</v>
-      </c>
-      <c r="C19" s="13" t="s">
-        <v>69</v>
-      </c>
-      <c r="D19" s="14">
+      <c r="G18" s="6"/>
+      <c r="H18" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="I18" s="7"/>
+      <c r="J18" s="6"/>
+      <c r="K18" s="6"/>
+      <c r="L18" s="26"/>
+      <c r="M18" s="25"/>
+    </row>
+    <row r="19" ht="18.5" customHeight="1" spans="1:13">
+      <c r="A19" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="B19" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="C19" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="D19" s="13">
         <v>4</v>
       </c>
-      <c r="E19" s="15">
+      <c r="E19" s="11">
         <v>4</v>
       </c>
-      <c r="F19" s="15">
+      <c r="F19" s="11">
         <v>2</v>
       </c>
-      <c r="G19" s="14"/>
-      <c r="H19" s="14"/>
-      <c r="I19" s="14"/>
-      <c r="J19" s="14"/>
-      <c r="K19" s="14"/>
-      <c r="L19" s="29"/>
-      <c r="M19" s="30"/>
-    </row>
-    <row r="20" ht="20" customHeight="1" spans="1:13">
-      <c r="A20" s="17" t="s">
-        <v>70</v>
-      </c>
-      <c r="B20" s="16" t="s">
-        <v>71</v>
+      <c r="G19" s="13"/>
+      <c r="H19" s="13"/>
+      <c r="I19" s="12"/>
+      <c r="J19" s="13"/>
+      <c r="K19" s="13"/>
+      <c r="L19" s="24"/>
+      <c r="M19" s="25"/>
+    </row>
+    <row r="20" ht="18.5" customHeight="1" spans="1:13">
+      <c r="A20" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>80</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="D20" s="8">
+        <v>81</v>
+      </c>
+      <c r="D20" s="6">
         <v>4</v>
       </c>
-      <c r="E20" s="9">
+      <c r="E20" s="8">
         <v>5</v>
       </c>
-      <c r="F20" s="9">
+      <c r="F20" s="8">
         <v>3</v>
       </c>
-      <c r="G20" s="8"/>
-      <c r="H20" s="8"/>
-      <c r="I20" s="8"/>
-      <c r="J20" s="8"/>
-      <c r="K20" s="8"/>
-      <c r="L20" s="31"/>
-      <c r="M20" s="30"/>
-    </row>
-    <row r="21" ht="20" customHeight="1" spans="1:13">
-      <c r="A21" s="17" t="s">
-        <v>73</v>
-      </c>
-      <c r="B21" s="12" t="s">
-        <v>74</v>
-      </c>
-      <c r="C21" s="13" t="s">
-        <v>75</v>
-      </c>
-      <c r="D21" s="14">
+      <c r="G20" s="6"/>
+      <c r="H20" s="6"/>
+      <c r="I20" s="7"/>
+      <c r="J20" s="6"/>
+      <c r="K20" s="6"/>
+      <c r="L20" s="26"/>
+      <c r="M20" s="25"/>
+    </row>
+    <row r="21" ht="51.5" customHeight="1" spans="1:13">
+      <c r="A21" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="B21" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="C21" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="D21" s="13">
         <v>4</v>
       </c>
-      <c r="E21" s="15">
+      <c r="E21" s="11">
         <v>6</v>
       </c>
-      <c r="F21" s="15">
+      <c r="F21" s="11">
         <v>4</v>
       </c>
-      <c r="G21" s="14"/>
-      <c r="H21" s="14"/>
-      <c r="I21" s="14"/>
-      <c r="J21" s="14"/>
-      <c r="K21" s="14"/>
-      <c r="L21" s="29"/>
-      <c r="M21" s="30"/>
-    </row>
-    <row r="22" ht="20" customHeight="1" spans="1:13">
-      <c r="A22" s="17" t="s">
-        <v>76</v>
-      </c>
-      <c r="B22" s="16" t="s">
-        <v>77</v>
+      <c r="G21" s="13"/>
+      <c r="H21" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="I21" s="12"/>
+      <c r="J21" s="13"/>
+      <c r="K21" s="13"/>
+      <c r="L21" s="24"/>
+      <c r="M21" s="25"/>
+    </row>
+    <row r="22" ht="51.5" customHeight="1" spans="1:13">
+      <c r="A22" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="B22" s="8" t="s">
+        <v>87</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="D22" s="8">
+        <v>88</v>
+      </c>
+      <c r="D22" s="6">
         <v>4</v>
       </c>
-      <c r="E22" s="9">
+      <c r="E22" s="8">
         <v>7</v>
       </c>
-      <c r="F22" s="9">
+      <c r="F22" s="8">
         <v>5</v>
       </c>
-      <c r="G22" s="8"/>
-      <c r="H22" s="8"/>
-      <c r="I22" s="8"/>
-      <c r="J22" s="8"/>
-      <c r="K22" s="8"/>
-      <c r="L22" s="31"/>
-      <c r="M22" s="30"/>
-    </row>
-    <row r="23" ht="20" customHeight="1" spans="1:13">
-      <c r="A23" s="11" t="s">
-        <v>79</v>
-      </c>
-      <c r="B23" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="C23" s="13" t="s">
-        <v>81</v>
-      </c>
-      <c r="D23" s="14">
+      <c r="G22" s="6"/>
+      <c r="H22" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="I22" s="7"/>
+      <c r="J22" s="6"/>
+      <c r="K22" s="6"/>
+      <c r="L22" s="26"/>
+      <c r="M22" s="25"/>
+    </row>
+    <row r="23" ht="51.5" customHeight="1" spans="1:13">
+      <c r="A23" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="B23" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="C23" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="D23" s="13">
         <v>5</v>
       </c>
-      <c r="E23" s="15">
+      <c r="E23" s="11">
         <v>4</v>
       </c>
-      <c r="F23" s="15">
+      <c r="F23" s="11">
         <v>1</v>
       </c>
-      <c r="G23" s="14"/>
-      <c r="H23" s="14"/>
-      <c r="I23" s="14"/>
-      <c r="J23" s="14"/>
-      <c r="K23" s="14"/>
-      <c r="L23" s="29"/>
-      <c r="M23" s="30"/>
-    </row>
-    <row r="24" ht="20" customHeight="1" spans="1:13">
-      <c r="A24" s="11" t="s">
-        <v>82</v>
-      </c>
-      <c r="B24" s="16" t="s">
-        <v>83</v>
-      </c>
-      <c r="C24" s="18" t="s">
-        <v>84</v>
-      </c>
-      <c r="D24" s="8">
+      <c r="G23" s="13"/>
+      <c r="H23" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="I23" s="12"/>
+      <c r="J23" s="13"/>
+      <c r="K23" s="13"/>
+      <c r="L23" s="24"/>
+      <c r="M23" s="25"/>
+    </row>
+    <row r="24" ht="51.5" customHeight="1" spans="1:13">
+      <c r="A24" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="B24" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="D24" s="6">
         <v>5</v>
       </c>
-      <c r="E24" s="9">
+      <c r="E24" s="8">
         <v>5</v>
       </c>
-      <c r="F24" s="9">
+      <c r="F24" s="8">
         <v>2</v>
       </c>
-      <c r="G24" s="19"/>
-      <c r="H24" s="19"/>
-      <c r="I24" s="19"/>
-      <c r="J24" s="19"/>
-      <c r="K24" s="19"/>
-      <c r="L24" s="32"/>
-      <c r="M24" s="30"/>
-    </row>
-    <row r="25" ht="20" customHeight="1" spans="1:13">
-      <c r="A25" s="11" t="s">
-        <v>85</v>
-      </c>
-      <c r="B25" s="12" t="s">
-        <v>86</v>
-      </c>
-      <c r="C25" s="20" t="s">
-        <v>87</v>
-      </c>
-      <c r="D25" s="14">
+      <c r="G24" s="6"/>
+      <c r="H24" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="I24" s="7"/>
+      <c r="J24" s="6"/>
+      <c r="K24" s="6"/>
+      <c r="L24" s="26"/>
+      <c r="M24" s="25"/>
+    </row>
+    <row r="25" ht="51.5" customHeight="1" spans="1:13">
+      <c r="A25" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="B25" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="C25" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="D25" s="13">
         <v>5</v>
       </c>
-      <c r="E25" s="15">
+      <c r="E25" s="11">
         <v>6</v>
       </c>
-      <c r="F25" s="15">
+      <c r="F25" s="11">
         <v>3</v>
       </c>
-      <c r="G25" s="21"/>
-      <c r="H25" s="21"/>
-      <c r="I25" s="21"/>
-      <c r="J25" s="21"/>
-      <c r="K25" s="21"/>
-      <c r="L25" s="33"/>
-      <c r="M25" s="30"/>
-    </row>
-    <row r="26" ht="20" customHeight="1" spans="1:13">
-      <c r="A26" s="17" t="s">
-        <v>88</v>
-      </c>
-      <c r="B26" s="18" t="s">
-        <v>89</v>
-      </c>
-      <c r="C26" s="18" t="s">
-        <v>90</v>
-      </c>
-      <c r="D26" s="19">
+      <c r="G25" s="13"/>
+      <c r="H25" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="I25" s="12"/>
+      <c r="J25" s="13"/>
+      <c r="K25" s="13"/>
+      <c r="L25" s="24"/>
+      <c r="M25" s="25"/>
+    </row>
+    <row r="26" ht="18.5" customHeight="1" spans="1:13">
+      <c r="A26" s="14" t="s">
+        <v>102</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="D26" s="6">
         <v>6</v>
       </c>
-      <c r="E26" s="9">
+      <c r="E26" s="8">
         <v>4</v>
       </c>
-      <c r="F26" s="9">
+      <c r="F26" s="8">
         <v>1</v>
       </c>
-      <c r="G26" s="19"/>
-      <c r="H26" s="19"/>
-      <c r="I26" s="19"/>
-      <c r="J26" s="19"/>
-      <c r="K26" s="19"/>
-      <c r="L26" s="32"/>
-      <c r="M26" s="30"/>
-    </row>
-    <row r="27" ht="20" customHeight="1" spans="1:13">
-      <c r="A27" s="17" t="s">
-        <v>91</v>
-      </c>
-      <c r="B27" s="20" t="s">
-        <v>92</v>
-      </c>
-      <c r="C27" s="20" t="s">
-        <v>93</v>
-      </c>
-      <c r="D27" s="21">
+      <c r="G26" s="6"/>
+      <c r="H26" s="6"/>
+      <c r="I26" s="7"/>
+      <c r="J26" s="6"/>
+      <c r="K26" s="6"/>
+      <c r="L26" s="26"/>
+      <c r="M26" s="25"/>
+    </row>
+    <row r="27" ht="18.5" customHeight="1" spans="1:13">
+      <c r="A27" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="B27" s="13" t="s">
+        <v>106</v>
+      </c>
+      <c r="C27" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="D27" s="13">
         <v>6</v>
       </c>
-      <c r="E27" s="15">
+      <c r="E27" s="11">
         <v>5</v>
       </c>
-      <c r="F27" s="15">
+      <c r="F27" s="11">
         <v>2</v>
       </c>
-      <c r="G27" s="21"/>
-      <c r="H27" s="21"/>
-      <c r="I27" s="21"/>
-      <c r="J27" s="21"/>
-      <c r="K27" s="21"/>
-      <c r="L27" s="33"/>
-      <c r="M27" s="30"/>
-    </row>
-    <row r="28" ht="20" customHeight="1" spans="1:13">
-      <c r="A28" s="17" t="s">
-        <v>94</v>
-      </c>
-      <c r="B28" s="22" t="s">
-        <v>95</v>
-      </c>
-      <c r="C28" s="22" t="s">
-        <v>96</v>
-      </c>
-      <c r="D28" s="23">
+      <c r="G27" s="13"/>
+      <c r="H27" s="13"/>
+      <c r="I27" s="12"/>
+      <c r="J27" s="13"/>
+      <c r="K27" s="13"/>
+      <c r="L27" s="24"/>
+      <c r="M27" s="25"/>
+    </row>
+    <row r="28" ht="35" customHeight="1" spans="1:13">
+      <c r="A28" s="15" t="s">
+        <v>108</v>
+      </c>
+      <c r="B28" s="16" t="s">
+        <v>109</v>
+      </c>
+      <c r="C28" s="17" t="s">
+        <v>110</v>
+      </c>
+      <c r="D28" s="16">
         <v>6</v>
       </c>
-      <c r="E28" s="24">
+      <c r="E28" s="18">
         <v>6</v>
       </c>
-      <c r="F28" s="24">
+      <c r="F28" s="18">
         <v>3</v>
       </c>
-      <c r="G28" s="23"/>
-      <c r="H28" s="23"/>
-      <c r="I28" s="23"/>
-      <c r="J28" s="23"/>
-      <c r="K28" s="23"/>
-      <c r="L28" s="34"/>
-      <c r="M28" s="30"/>
+      <c r="G28" s="16"/>
+      <c r="H28" s="16"/>
+      <c r="I28" s="17"/>
+      <c r="J28" s="16"/>
+      <c r="K28" s="16"/>
+      <c r="L28" s="27"/>
+      <c r="M28" s="25"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/excels/config/game/element_bond.xlsx
+++ b/excels/config/game/element_bond.xlsx
@@ -44,9 +44,6 @@
     <t>激活数量</t>
   </si>
   <si>
-    <t>展示顺序</t>
-  </si>
-  <si>
     <t>技能键值</t>
   </si>
   <si>
@@ -60,9 +57,6 @@
   </si>
   <si>
     <t>activate_count</t>
-  </si>
-  <si>
-    <t>order</t>
   </si>
   <si>
     <t>AbilityValues[{]</t>
@@ -372,6 +366,11 @@
     <t>造成伤害+25%</t>
   </si>
   <si>
+    <t>Dark_DamageMul {
+"Base" "10"
+}</t>
+  </si>
+  <si>
     <t>dark_5</t>
   </si>
   <si>
@@ -379,6 +378,11 @@
   </si>
   <si>
     <t>降低自身最大生命值25%，无视抗性提升至45%</t>
+  </si>
+  <si>
+    <t>HealthPoints {
+"TotalPercent" "-25"
+}</t>
   </si>
   <si>
     <t>dark_6</t>
@@ -1241,6 +1245,9 @@
     <xf numFmtId="49" fontId="3" fillId="0" borderId="4" xfId="50" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="4" xfId="50" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1273,9 +1280,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="10" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="4" xfId="50" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="11" xfId="50" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1430,7 +1434,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="黑色中色系标题行镶边行表格样式" count="3" xr9:uid="{814BC3AC-F529-4ACB-833E-A6BBB081C644}">
+    <tableStyle name="黑色中色系标题行镶边行表格样式" count="3" xr9:uid="{C9616131-B027-410D-8FB3-181685F3C5FD}">
       <tableStyleElement type="wholeTable" dxfId="2"/>
       <tableStyleElement type="headerRow" dxfId="1"/>
       <tableStyleElement type="secondRowStripe" dxfId="0"/>
@@ -1713,10 +1717,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M28"/>
+  <dimension ref="A1:L28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1725,14 +1729,13 @@
     <col min="2" max="2" width="9.00833333333333" style="1" customWidth="1"/>
     <col min="3" max="3" width="40.625" style="1" customWidth="1"/>
     <col min="4" max="5" width="14.675" customWidth="1"/>
-    <col min="6" max="6" width="10.3416666666667" customWidth="1"/>
-    <col min="7" max="7" width="15.175" customWidth="1"/>
-    <col min="8" max="8" width="19.8416666666667" customWidth="1"/>
-    <col min="9" max="9" width="22.0083333333333" customWidth="1"/>
-    <col min="10" max="12" width="4.24166666666667" customWidth="1"/>
+    <col min="6" max="6" width="15.175" customWidth="1"/>
+    <col min="7" max="7" width="19.8416666666667" customWidth="1"/>
+    <col min="8" max="8" width="22.0083333333333" customWidth="1"/>
+    <col min="9" max="11" width="4.24166666666667" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="18.5" customHeight="1" spans="1:13">
+    <row r="1" ht="18.5" customHeight="1" spans="1:12">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1748,96 +1751,87 @@
       <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="4" t="s">
-        <v>6</v>
-      </c>
+      <c r="G1" s="4"/>
       <c r="H1" s="4"/>
       <c r="I1" s="4"/>
       <c r="J1" s="4"/>
-      <c r="K1" s="4"/>
-      <c r="L1" s="19"/>
-      <c r="M1" s="20"/>
-    </row>
-    <row r="2" ht="18.5" customHeight="1" spans="1:13">
+      <c r="K1" s="20"/>
+      <c r="L1" s="21"/>
+    </row>
+    <row r="2" ht="18.5" customHeight="1" spans="1:12">
       <c r="A2" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B2" s="6"/>
       <c r="C2" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="E2" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="F2" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="G2" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="8" t="s">
+      <c r="H2" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="9" t="s">
+      <c r="I2" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="I2" s="21" t="s">
+      <c r="J2" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="J2" s="9" t="s">
+      <c r="K2" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="K2" s="9" t="s">
+      <c r="L2" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="L2" s="22" t="s">
+    </row>
+    <row r="3" ht="51.5" customHeight="1" spans="1:12">
+      <c r="A3" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="M2" s="23" t="s">
+      <c r="B3" s="12" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="3" ht="51.5" customHeight="1" spans="1:13">
-      <c r="A3" s="10" t="s">
+      <c r="C3" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="D3" s="14">
+        <v>1</v>
+      </c>
+      <c r="E3" s="12">
+        <v>3</v>
+      </c>
+      <c r="F3" s="14"/>
+      <c r="G3" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="C3" s="12" t="s">
+      <c r="H3" s="13"/>
+      <c r="I3" s="14"/>
+      <c r="J3" s="14"/>
+      <c r="K3" s="24"/>
+      <c r="L3" s="25"/>
+    </row>
+    <row r="4" ht="18.5" customHeight="1" spans="1:12">
+      <c r="A4" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="D3" s="13">
-        <v>1</v>
-      </c>
-      <c r="E3" s="11">
-        <v>3</v>
-      </c>
-      <c r="F3" s="11">
-        <v>1</v>
-      </c>
-      <c r="G3" s="13"/>
-      <c r="H3" s="13" t="s">
+      <c r="B4" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="I3" s="12"/>
-      <c r="J3" s="13"/>
-      <c r="K3" s="13"/>
-      <c r="L3" s="24"/>
-      <c r="M3" s="25"/>
-    </row>
-    <row r="4" ht="18.5" customHeight="1" spans="1:13">
-      <c r="A4" s="14" t="s">
+      <c r="C4" s="7" t="s">
         <v>23</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>25</v>
       </c>
       <c r="D4" s="6">
         <v>1</v>
@@ -1845,53 +1839,47 @@
       <c r="E4" s="8">
         <v>4</v>
       </c>
-      <c r="F4" s="8">
-        <v>2</v>
-      </c>
+      <c r="F4" s="6"/>
       <c r="G4" s="6"/>
-      <c r="H4" s="6"/>
-      <c r="I4" s="7"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="6"/>
       <c r="J4" s="6"/>
-      <c r="K4" s="6"/>
-      <c r="L4" s="26"/>
-      <c r="M4" s="25"/>
-    </row>
-    <row r="5" ht="18.5" customHeight="1" spans="1:13">
-      <c r="A5" s="10" t="s">
+      <c r="K4" s="26"/>
+      <c r="L4" s="25"/>
+    </row>
+    <row r="5" ht="18.5" customHeight="1" spans="1:12">
+      <c r="A5" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="D5" s="14">
+        <v>1</v>
+      </c>
+      <c r="E5" s="12">
+        <v>5</v>
+      </c>
+      <c r="F5" s="14"/>
+      <c r="G5" s="14"/>
+      <c r="H5" s="13"/>
+      <c r="I5" s="14"/>
+      <c r="J5" s="14"/>
+      <c r="K5" s="24"/>
+      <c r="L5" s="25"/>
+    </row>
+    <row r="6" ht="18.5" customHeight="1" spans="1:12">
+      <c r="A6" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="C5" s="12" t="s">
+      <c r="B6" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="D5" s="13">
-        <v>1</v>
-      </c>
-      <c r="E5" s="11">
-        <v>5</v>
-      </c>
-      <c r="F5" s="11">
-        <v>3</v>
-      </c>
-      <c r="G5" s="13"/>
-      <c r="H5" s="13"/>
-      <c r="I5" s="12"/>
-      <c r="J5" s="13"/>
-      <c r="K5" s="13"/>
-      <c r="L5" s="24"/>
-      <c r="M5" s="25"/>
-    </row>
-    <row r="6" ht="18.5" customHeight="1" spans="1:13">
-      <c r="A6" s="14" t="s">
+      <c r="C6" s="7" t="s">
         <v>29</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>31</v>
       </c>
       <c r="D6" s="6">
         <v>1</v>
@@ -1899,57 +1887,51 @@
       <c r="E6" s="8">
         <v>6</v>
       </c>
-      <c r="F6" s="8">
-        <v>4</v>
-      </c>
+      <c r="F6" s="6"/>
       <c r="G6" s="6"/>
-      <c r="H6" s="6"/>
-      <c r="I6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="6"/>
       <c r="J6" s="6"/>
-      <c r="K6" s="6"/>
-      <c r="L6" s="26"/>
-      <c r="M6" s="25"/>
-    </row>
-    <row r="7" ht="51.5" customHeight="1" spans="1:13">
-      <c r="A7" s="10" t="s">
+      <c r="K6" s="26"/>
+      <c r="L6" s="25"/>
+    </row>
+    <row r="7" ht="51.5" customHeight="1" spans="1:12">
+      <c r="A7" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="B7" s="11" t="s">
+      <c r="D7" s="14">
+        <v>1</v>
+      </c>
+      <c r="E7" s="12">
+        <v>7</v>
+      </c>
+      <c r="F7" s="14"/>
+      <c r="G7" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="C7" s="12" t="s">
+      <c r="H7" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="D7" s="13">
-        <v>1</v>
-      </c>
-      <c r="E7" s="11">
-        <v>7</v>
-      </c>
-      <c r="F7" s="11">
-        <v>5</v>
-      </c>
-      <c r="G7" s="13"/>
-      <c r="H7" s="13" t="s">
+      <c r="I7" s="14"/>
+      <c r="J7" s="14"/>
+      <c r="K7" s="24"/>
+      <c r="L7" s="25"/>
+    </row>
+    <row r="8" ht="51.5" customHeight="1" spans="1:12">
+      <c r="A8" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="I7" s="12" t="s">
+      <c r="B8" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="J7" s="13"/>
-      <c r="K7" s="13"/>
-      <c r="L7" s="24"/>
-      <c r="M7" s="25"/>
-    </row>
-    <row r="8" ht="51.5" customHeight="1" spans="1:13">
-      <c r="A8" s="14" t="s">
+      <c r="C8" s="7" t="s">
         <v>37</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>39</v>
       </c>
       <c r="D8" s="6">
         <v>2</v>
@@ -1957,55 +1939,49 @@
       <c r="E8" s="8">
         <v>3</v>
       </c>
-      <c r="F8" s="8">
-        <v>1</v>
-      </c>
-      <c r="G8" s="6"/>
-      <c r="H8" s="6" t="s">
+      <c r="F8" s="6"/>
+      <c r="G8" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="H8" s="7"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="6"/>
+      <c r="K8" s="26"/>
+      <c r="L8" s="25"/>
+    </row>
+    <row r="9" ht="18.5" customHeight="1" spans="1:12">
+      <c r="A9" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="B9" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="I8" s="7"/>
-      <c r="J8" s="6"/>
-      <c r="K8" s="6"/>
-      <c r="L8" s="26"/>
-      <c r="M8" s="25"/>
-    </row>
-    <row r="9" ht="18.5" customHeight="1" spans="1:13">
-      <c r="A9" s="10" t="s">
+      <c r="C9" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="B9" s="11" t="s">
+      <c r="D9" s="14">
+        <v>2</v>
+      </c>
+      <c r="E9" s="12">
+        <v>4</v>
+      </c>
+      <c r="F9" s="14"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="13"/>
+      <c r="I9" s="14"/>
+      <c r="J9" s="14"/>
+      <c r="K9" s="24"/>
+      <c r="L9" s="25"/>
+    </row>
+    <row r="10" ht="18.5" customHeight="1" spans="1:12">
+      <c r="A10" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="C9" s="12" t="s">
+      <c r="B10" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="D9" s="13">
-        <v>2</v>
-      </c>
-      <c r="E9" s="11">
-        <v>4</v>
-      </c>
-      <c r="F9" s="11">
-        <v>2</v>
-      </c>
-      <c r="G9" s="13"/>
-      <c r="H9" s="13"/>
-      <c r="I9" s="12"/>
-      <c r="J9" s="13"/>
-      <c r="K9" s="13"/>
-      <c r="L9" s="24"/>
-      <c r="M9" s="25"/>
-    </row>
-    <row r="10" ht="18.5" customHeight="1" spans="1:13">
-      <c r="A10" s="14" t="s">
+      <c r="C10" s="7" t="s">
         <v>44</v>
-      </c>
-      <c r="B10" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>46</v>
       </c>
       <c r="D10" s="6">
         <v>2</v>
@@ -2013,53 +1989,47 @@
       <c r="E10" s="8">
         <v>5</v>
       </c>
-      <c r="F10" s="8">
-        <v>3</v>
-      </c>
+      <c r="F10" s="6"/>
       <c r="G10" s="6"/>
-      <c r="H10" s="6"/>
-      <c r="I10" s="7"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="6"/>
       <c r="J10" s="6"/>
-      <c r="K10" s="6"/>
-      <c r="L10" s="26"/>
-      <c r="M10" s="25"/>
-    </row>
-    <row r="11" ht="18.5" customHeight="1" spans="1:13">
-      <c r="A11" s="10" t="s">
+      <c r="K10" s="26"/>
+      <c r="L10" s="25"/>
+    </row>
+    <row r="11" ht="18.5" customHeight="1" spans="1:12">
+      <c r="A11" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="B11" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="C11" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="B11" s="11" t="s">
+      <c r="D11" s="14">
+        <v>2</v>
+      </c>
+      <c r="E11" s="12">
+        <v>6</v>
+      </c>
+      <c r="F11" s="14"/>
+      <c r="G11" s="14"/>
+      <c r="H11" s="13"/>
+      <c r="I11" s="14"/>
+      <c r="J11" s="14"/>
+      <c r="K11" s="24"/>
+      <c r="L11" s="25"/>
+    </row>
+    <row r="12" ht="51.5" customHeight="1" spans="1:12">
+      <c r="A12" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="C11" s="12" t="s">
+      <c r="B12" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="D11" s="13">
-        <v>2</v>
-      </c>
-      <c r="E11" s="11">
-        <v>6</v>
-      </c>
-      <c r="F11" s="11">
-        <v>4</v>
-      </c>
-      <c r="G11" s="13"/>
-      <c r="H11" s="13"/>
-      <c r="I11" s="12"/>
-      <c r="J11" s="13"/>
-      <c r="K11" s="13"/>
-      <c r="L11" s="24"/>
-      <c r="M11" s="25"/>
-    </row>
-    <row r="12" ht="51.5" customHeight="1" spans="1:13">
-      <c r="A12" s="14" t="s">
+      <c r="C12" s="7" t="s">
         <v>50</v>
-      </c>
-      <c r="B12" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="C12" s="7" t="s">
-        <v>52</v>
       </c>
       <c r="D12" s="6">
         <v>2</v>
@@ -2067,57 +2037,51 @@
       <c r="E12" s="8">
         <v>7</v>
       </c>
-      <c r="F12" s="8">
-        <v>5</v>
-      </c>
-      <c r="G12" s="6"/>
-      <c r="H12" s="6" t="s">
+      <c r="F12" s="6"/>
+      <c r="G12" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="H12" s="7"/>
+      <c r="I12" s="6"/>
+      <c r="J12" s="6"/>
+      <c r="K12" s="26"/>
+      <c r="L12" s="25"/>
+    </row>
+    <row r="13" ht="51.5" customHeight="1" spans="1:12">
+      <c r="A13" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="B13" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="I12" s="7"/>
-      <c r="J12" s="6"/>
-      <c r="K12" s="6"/>
-      <c r="L12" s="26"/>
-      <c r="M12" s="25"/>
-    </row>
-    <row r="13" ht="51.5" customHeight="1" spans="1:13">
-      <c r="A13" s="10" t="s">
+      <c r="C13" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="B13" s="11" t="s">
+      <c r="D13" s="14">
+        <v>3</v>
+      </c>
+      <c r="E13" s="12">
+        <v>3</v>
+      </c>
+      <c r="F13" s="14"/>
+      <c r="G13" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="C13" s="12" t="s">
+      <c r="H13" s="13"/>
+      <c r="I13" s="14"/>
+      <c r="J13" s="14"/>
+      <c r="K13" s="24"/>
+      <c r="L13" s="25"/>
+    </row>
+    <row r="14" ht="18.5" customHeight="1" spans="1:12">
+      <c r="A14" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="D13" s="13">
-        <v>3</v>
-      </c>
-      <c r="E13" s="11">
-        <v>3</v>
-      </c>
-      <c r="F13" s="11">
-        <v>1</v>
-      </c>
-      <c r="G13" s="13"/>
-      <c r="H13" s="13" t="s">
+      <c r="B14" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="I13" s="12"/>
-      <c r="J13" s="13"/>
-      <c r="K13" s="13"/>
-      <c r="L13" s="24"/>
-      <c r="M13" s="25"/>
-    </row>
-    <row r="14" ht="18.5" customHeight="1" spans="1:13">
-      <c r="A14" s="14" t="s">
+      <c r="C14" s="7" t="s">
         <v>58</v>
-      </c>
-      <c r="B14" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>60</v>
       </c>
       <c r="D14" s="6">
         <v>3</v>
@@ -2125,53 +2089,47 @@
       <c r="E14" s="8">
         <v>4</v>
       </c>
-      <c r="F14" s="8">
-        <v>2</v>
-      </c>
+      <c r="F14" s="6"/>
       <c r="G14" s="6"/>
-      <c r="H14" s="6"/>
-      <c r="I14" s="7"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="6"/>
       <c r="J14" s="6"/>
-      <c r="K14" s="6"/>
-      <c r="L14" s="26"/>
-      <c r="M14" s="25"/>
-    </row>
-    <row r="15" ht="18.5" customHeight="1" spans="1:13">
-      <c r="A15" s="10" t="s">
+      <c r="K14" s="26"/>
+      <c r="L14" s="25"/>
+    </row>
+    <row r="15" ht="18.5" customHeight="1" spans="1:12">
+      <c r="A15" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="B15" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="C15" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="B15" s="11" t="s">
+      <c r="D15" s="14">
+        <v>3</v>
+      </c>
+      <c r="E15" s="12">
+        <v>5</v>
+      </c>
+      <c r="F15" s="14"/>
+      <c r="G15" s="14"/>
+      <c r="H15" s="13"/>
+      <c r="I15" s="14"/>
+      <c r="J15" s="14"/>
+      <c r="K15" s="24"/>
+      <c r="L15" s="25"/>
+    </row>
+    <row r="16" ht="18.5" customHeight="1" spans="1:12">
+      <c r="A16" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="C15" s="12" t="s">
+      <c r="B16" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="D15" s="13">
-        <v>3</v>
-      </c>
-      <c r="E15" s="11">
-        <v>5</v>
-      </c>
-      <c r="F15" s="11">
-        <v>3</v>
-      </c>
-      <c r="G15" s="13"/>
-      <c r="H15" s="13"/>
-      <c r="I15" s="12"/>
-      <c r="J15" s="13"/>
-      <c r="K15" s="13"/>
-      <c r="L15" s="24"/>
-      <c r="M15" s="25"/>
-    </row>
-    <row r="16" ht="18.5" customHeight="1" spans="1:13">
-      <c r="A16" s="14" t="s">
+      <c r="C16" s="7" t="s">
         <v>64</v>
-      </c>
-      <c r="B16" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="C16" s="7" t="s">
-        <v>66</v>
       </c>
       <c r="D16" s="6">
         <v>3</v>
@@ -2179,57 +2137,51 @@
       <c r="E16" s="8">
         <v>6</v>
       </c>
-      <c r="F16" s="8">
-        <v>4</v>
-      </c>
+      <c r="F16" s="6"/>
       <c r="G16" s="6"/>
-      <c r="H16" s="6"/>
-      <c r="I16" s="7"/>
+      <c r="H16" s="7"/>
+      <c r="I16" s="6"/>
       <c r="J16" s="6"/>
-      <c r="K16" s="6"/>
-      <c r="L16" s="26"/>
-      <c r="M16" s="25"/>
-    </row>
-    <row r="17" ht="51.5" customHeight="1" spans="1:13">
-      <c r="A17" s="10" t="s">
+      <c r="K16" s="26"/>
+      <c r="L16" s="25"/>
+    </row>
+    <row r="17" ht="51.5" customHeight="1" spans="1:12">
+      <c r="A17" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="B17" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="C17" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="B17" s="11" t="s">
+      <c r="D17" s="14">
+        <v>3</v>
+      </c>
+      <c r="E17" s="12">
+        <v>7</v>
+      </c>
+      <c r="F17" s="14"/>
+      <c r="G17" s="14" t="s">
         <v>68</v>
       </c>
-      <c r="C17" s="12" t="s">
+      <c r="H17" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="D17" s="13">
-        <v>3</v>
-      </c>
-      <c r="E17" s="11">
-        <v>7</v>
-      </c>
-      <c r="F17" s="11">
-        <v>5</v>
-      </c>
-      <c r="G17" s="13"/>
-      <c r="H17" s="13" t="s">
+      <c r="I17" s="14"/>
+      <c r="J17" s="14"/>
+      <c r="K17" s="24"/>
+      <c r="L17" s="25"/>
+    </row>
+    <row r="18" ht="51.5" customHeight="1" spans="1:12">
+      <c r="A18" s="15" t="s">
         <v>70</v>
       </c>
-      <c r="I17" s="12" t="s">
+      <c r="B18" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="J17" s="13"/>
-      <c r="K17" s="13"/>
-      <c r="L17" s="24"/>
-      <c r="M17" s="25"/>
-    </row>
-    <row r="18" ht="51.5" customHeight="1" spans="1:13">
-      <c r="A18" s="14" t="s">
+      <c r="C18" s="7" t="s">
         <v>72</v>
-      </c>
-      <c r="B18" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="C18" s="7" t="s">
-        <v>74</v>
       </c>
       <c r="D18" s="6">
         <v>4</v>
@@ -2237,55 +2189,49 @@
       <c r="E18" s="8">
         <v>3</v>
       </c>
-      <c r="F18" s="8">
-        <v>1</v>
-      </c>
-      <c r="G18" s="6"/>
-      <c r="H18" s="6" t="s">
+      <c r="F18" s="6"/>
+      <c r="G18" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="H18" s="7"/>
+      <c r="I18" s="6"/>
+      <c r="J18" s="6"/>
+      <c r="K18" s="26"/>
+      <c r="L18" s="25"/>
+    </row>
+    <row r="19" ht="18.5" customHeight="1" spans="1:12">
+      <c r="A19" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="B19" s="12" t="s">
         <v>75</v>
       </c>
-      <c r="I18" s="7"/>
-      <c r="J18" s="6"/>
-      <c r="K18" s="6"/>
-      <c r="L18" s="26"/>
-      <c r="M18" s="25"/>
-    </row>
-    <row r="19" ht="18.5" customHeight="1" spans="1:13">
-      <c r="A19" s="10" t="s">
+      <c r="C19" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="B19" s="11" t="s">
+      <c r="D19" s="14">
+        <v>4</v>
+      </c>
+      <c r="E19" s="12">
+        <v>4</v>
+      </c>
+      <c r="F19" s="14"/>
+      <c r="G19" s="14"/>
+      <c r="H19" s="13"/>
+      <c r="I19" s="14"/>
+      <c r="J19" s="14"/>
+      <c r="K19" s="24"/>
+      <c r="L19" s="25"/>
+    </row>
+    <row r="20" ht="18.5" customHeight="1" spans="1:12">
+      <c r="A20" s="15" t="s">
         <v>77</v>
       </c>
-      <c r="C19" s="12" t="s">
+      <c r="B20" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="D19" s="13">
-        <v>4</v>
-      </c>
-      <c r="E19" s="11">
-        <v>4</v>
-      </c>
-      <c r="F19" s="11">
-        <v>2</v>
-      </c>
-      <c r="G19" s="13"/>
-      <c r="H19" s="13"/>
-      <c r="I19" s="12"/>
-      <c r="J19" s="13"/>
-      <c r="K19" s="13"/>
-      <c r="L19" s="24"/>
-      <c r="M19" s="25"/>
-    </row>
-    <row r="20" ht="18.5" customHeight="1" spans="1:13">
-      <c r="A20" s="14" t="s">
+      <c r="C20" s="7" t="s">
         <v>79</v>
-      </c>
-      <c r="B20" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="C20" s="7" t="s">
-        <v>81</v>
       </c>
       <c r="D20" s="6">
         <v>4</v>
@@ -2293,55 +2239,49 @@
       <c r="E20" s="8">
         <v>5</v>
       </c>
-      <c r="F20" s="8">
-        <v>3</v>
-      </c>
+      <c r="F20" s="6"/>
       <c r="G20" s="6"/>
-      <c r="H20" s="6"/>
-      <c r="I20" s="7"/>
+      <c r="H20" s="7"/>
+      <c r="I20" s="6"/>
       <c r="J20" s="6"/>
-      <c r="K20" s="6"/>
-      <c r="L20" s="26"/>
-      <c r="M20" s="25"/>
-    </row>
-    <row r="21" ht="51.5" customHeight="1" spans="1:13">
-      <c r="A21" s="10" t="s">
+      <c r="K20" s="26"/>
+      <c r="L20" s="25"/>
+    </row>
+    <row r="21" ht="51.5" customHeight="1" spans="1:12">
+      <c r="A21" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="B21" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="C21" s="13" t="s">
         <v>82</v>
       </c>
-      <c r="B21" s="11" t="s">
+      <c r="D21" s="14">
+        <v>4</v>
+      </c>
+      <c r="E21" s="12">
+        <v>6</v>
+      </c>
+      <c r="F21" s="14"/>
+      <c r="G21" s="14" t="s">
         <v>83</v>
       </c>
-      <c r="C21" s="12" t="s">
+      <c r="H21" s="13"/>
+      <c r="I21" s="14"/>
+      <c r="J21" s="14"/>
+      <c r="K21" s="24"/>
+      <c r="L21" s="25"/>
+    </row>
+    <row r="22" ht="51.5" customHeight="1" spans="1:12">
+      <c r="A22" s="15" t="s">
         <v>84</v>
       </c>
-      <c r="D21" s="13">
-        <v>4</v>
-      </c>
-      <c r="E21" s="11">
-        <v>6</v>
-      </c>
-      <c r="F21" s="11">
-        <v>4</v>
-      </c>
-      <c r="G21" s="13"/>
-      <c r="H21" s="13" t="s">
+      <c r="B22" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="I21" s="12"/>
-      <c r="J21" s="13"/>
-      <c r="K21" s="13"/>
-      <c r="L21" s="24"/>
-      <c r="M21" s="25"/>
-    </row>
-    <row r="22" ht="51.5" customHeight="1" spans="1:13">
-      <c r="A22" s="14" t="s">
+      <c r="C22" s="7" t="s">
         <v>86</v>
-      </c>
-      <c r="B22" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="C22" s="7" t="s">
-        <v>88</v>
       </c>
       <c r="D22" s="6">
         <v>4</v>
@@ -2349,57 +2289,51 @@
       <c r="E22" s="8">
         <v>7</v>
       </c>
-      <c r="F22" s="8">
+      <c r="F22" s="6"/>
+      <c r="G22" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="H22" s="7"/>
+      <c r="I22" s="6"/>
+      <c r="J22" s="6"/>
+      <c r="K22" s="26"/>
+      <c r="L22" s="25"/>
+    </row>
+    <row r="23" ht="51.5" customHeight="1" spans="1:12">
+      <c r="A23" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="B23" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="C23" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="D23" s="14">
         <v>5</v>
       </c>
-      <c r="G22" s="6"/>
-      <c r="H22" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="I22" s="7"/>
-      <c r="J22" s="6"/>
-      <c r="K22" s="6"/>
-      <c r="L22" s="26"/>
-      <c r="M22" s="25"/>
-    </row>
-    <row r="23" ht="51.5" customHeight="1" spans="1:13">
-      <c r="A23" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="B23" s="11" t="s">
+      <c r="E23" s="12">
+        <v>4</v>
+      </c>
+      <c r="F23" s="14"/>
+      <c r="G23" s="14" t="s">
         <v>91</v>
       </c>
-      <c r="C23" s="12" t="s">
+      <c r="H23" s="13"/>
+      <c r="I23" s="14"/>
+      <c r="J23" s="14"/>
+      <c r="K23" s="24"/>
+      <c r="L23" s="25"/>
+    </row>
+    <row r="24" ht="51.5" customHeight="1" spans="1:12">
+      <c r="A24" s="15" t="s">
         <v>92</v>
       </c>
-      <c r="D23" s="13">
-        <v>5</v>
-      </c>
-      <c r="E23" s="11">
-        <v>4</v>
-      </c>
-      <c r="F23" s="11">
-        <v>1</v>
-      </c>
-      <c r="G23" s="13"/>
-      <c r="H23" s="13" t="s">
+      <c r="B24" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="I23" s="12"/>
-      <c r="J23" s="13"/>
-      <c r="K23" s="13"/>
-      <c r="L23" s="24"/>
-      <c r="M23" s="25"/>
-    </row>
-    <row r="24" ht="51.5" customHeight="1" spans="1:13">
-      <c r="A24" s="14" t="s">
+      <c r="C24" s="7" t="s">
         <v>94</v>
-      </c>
-      <c r="B24" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="C24" s="7" t="s">
-        <v>96</v>
       </c>
       <c r="D24" s="6">
         <v>5</v>
@@ -2407,57 +2341,51 @@
       <c r="E24" s="8">
         <v>5</v>
       </c>
-      <c r="F24" s="8">
-        <v>2</v>
-      </c>
-      <c r="G24" s="6"/>
-      <c r="H24" s="6" t="s">
+      <c r="F24" s="6"/>
+      <c r="G24" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="H24" s="7"/>
+      <c r="I24" s="6"/>
+      <c r="J24" s="6"/>
+      <c r="K24" s="26"/>
+      <c r="L24" s="25"/>
+    </row>
+    <row r="25" ht="51.5" customHeight="1" spans="1:12">
+      <c r="A25" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="B25" s="12" t="s">
         <v>97</v>
       </c>
-      <c r="I24" s="7"/>
-      <c r="J24" s="6"/>
-      <c r="K24" s="6"/>
-      <c r="L24" s="26"/>
-      <c r="M24" s="25"/>
-    </row>
-    <row r="25" ht="51.5" customHeight="1" spans="1:13">
-      <c r="A25" s="10" t="s">
+      <c r="C25" s="13" t="s">
         <v>98</v>
       </c>
-      <c r="B25" s="11" t="s">
+      <c r="D25" s="14">
+        <v>5</v>
+      </c>
+      <c r="E25" s="12">
+        <v>6</v>
+      </c>
+      <c r="F25" s="14"/>
+      <c r="G25" s="14" t="s">
         <v>99</v>
       </c>
-      <c r="C25" s="12" t="s">
+      <c r="H25" s="13"/>
+      <c r="I25" s="14"/>
+      <c r="J25" s="14"/>
+      <c r="K25" s="24"/>
+      <c r="L25" s="25"/>
+    </row>
+    <row r="26" ht="18.5" customHeight="1" spans="1:12">
+      <c r="A26" s="15" t="s">
         <v>100</v>
       </c>
-      <c r="D25" s="13">
-        <v>5</v>
-      </c>
-      <c r="E25" s="11">
-        <v>6</v>
-      </c>
-      <c r="F25" s="11">
-        <v>3</v>
-      </c>
-      <c r="G25" s="13"/>
-      <c r="H25" s="13" t="s">
+      <c r="B26" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="I25" s="12"/>
-      <c r="J25" s="13"/>
-      <c r="K25" s="13"/>
-      <c r="L25" s="24"/>
-      <c r="M25" s="25"/>
-    </row>
-    <row r="26" ht="18.5" customHeight="1" spans="1:13">
-      <c r="A26" s="14" t="s">
+      <c r="C26" s="7" t="s">
         <v>102</v>
-      </c>
-      <c r="B26" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="C26" s="7" t="s">
-        <v>104</v>
       </c>
       <c r="D26" s="6">
         <v>6</v>
@@ -2465,70 +2393,65 @@
       <c r="E26" s="8">
         <v>4</v>
       </c>
-      <c r="F26" s="8">
-        <v>1</v>
-      </c>
-      <c r="G26" s="6"/>
-      <c r="H26" s="6"/>
-      <c r="I26" s="7"/>
+      <c r="F26" s="6"/>
+      <c r="G26" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="H26" s="7"/>
+      <c r="I26" s="6"/>
       <c r="J26" s="6"/>
-      <c r="K26" s="6"/>
-      <c r="L26" s="26"/>
-      <c r="M26" s="25"/>
-    </row>
-    <row r="27" ht="18.5" customHeight="1" spans="1:13">
-      <c r="A27" s="10" t="s">
+      <c r="K26" s="26"/>
+      <c r="L26" s="25"/>
+    </row>
+    <row r="27" ht="49.5" spans="1:12">
+      <c r="A27" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="B27" s="14" t="s">
         <v>105</v>
       </c>
-      <c r="B27" s="13" t="s">
+      <c r="C27" s="13" t="s">
         <v>106</v>
       </c>
-      <c r="C27" s="12" t="s">
+      <c r="D27" s="14">
+        <v>6</v>
+      </c>
+      <c r="E27" s="12">
+        <v>5</v>
+      </c>
+      <c r="F27" s="14"/>
+      <c r="G27" s="14" t="s">
         <v>107</v>
       </c>
-      <c r="D27" s="13">
+      <c r="H27" s="13"/>
+      <c r="I27" s="14"/>
+      <c r="J27" s="14"/>
+      <c r="K27" s="24"/>
+      <c r="L27" s="25"/>
+    </row>
+    <row r="28" ht="35" customHeight="1" spans="1:12">
+      <c r="A28" s="16" t="s">
+        <v>108</v>
+      </c>
+      <c r="B28" s="17" t="s">
+        <v>109</v>
+      </c>
+      <c r="C28" s="18" t="s">
+        <v>110</v>
+      </c>
+      <c r="D28" s="17">
         <v>6</v>
       </c>
-      <c r="E27" s="11">
-        <v>5</v>
-      </c>
-      <c r="F27" s="11">
-        <v>2</v>
-      </c>
-      <c r="G27" s="13"/>
-      <c r="H27" s="13"/>
-      <c r="I27" s="12"/>
-      <c r="J27" s="13"/>
-      <c r="K27" s="13"/>
-      <c r="L27" s="24"/>
-      <c r="M27" s="25"/>
-    </row>
-    <row r="28" ht="35" customHeight="1" spans="1:13">
-      <c r="A28" s="15" t="s">
-        <v>108</v>
-      </c>
-      <c r="B28" s="16" t="s">
-        <v>109</v>
-      </c>
-      <c r="C28" s="17" t="s">
-        <v>110</v>
-      </c>
-      <c r="D28" s="16">
+      <c r="E28" s="19">
         <v>6</v>
       </c>
-      <c r="E28" s="18">
-        <v>6</v>
-      </c>
-      <c r="F28" s="18">
-        <v>3</v>
-      </c>
-      <c r="G28" s="16"/>
-      <c r="H28" s="16"/>
+      <c r="F28" s="17"/>
+      <c r="G28" s="17"/>
+      <c r="H28" s="18"/>
       <c r="I28" s="17"/>
-      <c r="J28" s="16"/>
-      <c r="K28" s="16"/>
-      <c r="L28" s="27"/>
-      <c r="M28" s="25"/>
+      <c r="J28" s="17"/>
+      <c r="K28" s="27"/>
+      <c r="L28" s="25"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
